--- a/individual_results/avey/20.xlsx
+++ b/individual_results/avey/20.xlsx
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
         <v>0.75</v>
@@ -585,7 +585,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
         <v>0.75</v>
@@ -658,7 +658,7 @@
         <v>0.25</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="D4" t="n">
         <v>0.75</v>
@@ -728,7 +728,9 @@
       <c r="L4" t="n">
         <v>0.2857142857142858</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.25</v>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -762,7 +764,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D5" t="n">
         <v>0.75</v>
@@ -791,7 +793,9 @@
       <c r="L5" t="n">
         <v>0.2631578947368421</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0.25</v>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -827,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2718293842440409</v>
+        <v>0.3604963103757638</v>
       </c>
       <c r="D6" t="n">
         <v>0.8024912833953722</v>
@@ -857,7 +861,7 @@
         <v>0.2068894943073535</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.07026687648649678</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>

--- a/individual_results/avey/20.xlsx
+++ b/individual_results/avey/20.xlsx
@@ -576,13 +576,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0.25</v>
@@ -649,13 +649,13 @@
         <v>0.25</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K3" t="n">
         <v>0.25</v>
       </c>
       <c r="L3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0.25</v>
@@ -720,14 +720,12 @@
         <v>0.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="K4" t="n">
         <v>0.4</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>0.25</v>
       </c>
@@ -785,14 +783,12 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K5" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.2631578947368421</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>0.25</v>
       </c>
@@ -852,13 +848,13 @@
         <v>0.7026687648649679</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2526229712668821</v>
+        <v>0.0886669261317229</v>
       </c>
       <c r="K6" t="n">
         <v>0.04684458432433119</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2068894943073535</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0.07026687648649678</v>
